--- a/jiekou.xlsx
+++ b/jiekou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="7950"/>
+    <workbookView windowWidth="25920" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
-  <si>
-    <t>接口测试用例</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>接口</t>
   </si>
   <si>
     <t>用例</t>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>模块</t>
+  </si>
+  <si>
+    <t>接口名</t>
   </si>
   <si>
     <t>接口url</t>
@@ -65,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +92,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,29 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -201,23 +204,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +253,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,19 +277,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,37 +325,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,12 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,61 +397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,16 +546,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,52 +567,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -618,22 +621,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,34 +645,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,21 +1028,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,8 +1051,9 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1070,21 +1075,21 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
@@ -1093,21 +1098,21 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
@@ -1116,21 +1121,21 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
@@ -1139,21 +1144,21 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
@@ -1162,21 +1167,21 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
@@ -1185,21 +1190,21 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
@@ -1208,21 +1213,21 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
@@ -1230,20 +1235,23 @@
       </c>
       <c r="G9" t="s">
         <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D4" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D5" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D6" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D8" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D7" r:id="rId1" display="www.baidu.com"/>
-    <hyperlink ref="D9" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="www.baidu.com"/>
+    <hyperlink ref="E9" r:id="rId1" display="www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1252,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1269,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/jiekou.xlsx
+++ b/jiekou.xlsx
@@ -11,19 +11,81 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>接口测试用例</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>用例</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>接口url</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>ces</t>
+  </si>
+  <si>
+    <t>ming</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>asdfasdfadsf</t>
+  </si>
+  <si>
+    <t>code=40007</t>
+  </si>
+  <si>
+    <t>的广东佛山高大上发个梵蒂冈</t>
+  </si>
+  <si>
+    <t>第三方割发代首法规的法规</t>
+  </si>
+  <si>
+    <t>的方式公司的分公司电饭锅</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +94,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF93A2A9"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -41,12 +109,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -55,6 +138,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -62,31 +161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,6 +185,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -108,6 +200,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -115,6 +222,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -122,61 +243,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,13 +253,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3F4F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,179 +439,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F5F8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -395,15 +532,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,51 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,139 +579,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -976,42 +1077,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="62.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>5435110</v>
-      </c>
+    <row r="1" spans="2:6">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>5435108</v>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>5479669</v>
+    <row r="3" ht="54.75" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>5479669</v>
+    <row r="4" ht="54.75" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>5504149</v>
+    <row r="5" ht="54.75" spans="1:8">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:8">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1019,7 +1244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1036,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/jiekou.xlsx
+++ b/jiekou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,36 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
-  <si>
-    <t>接口测试用例</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>接口</t>
   </si>
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>用例</t>
-  </si>
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>模块</t>
+    <t>项目名字</t>
+  </si>
+  <si>
+    <t>模块名字</t>
+  </si>
+  <si>
+    <t>接口名字</t>
   </si>
   <si>
     <t>接口url</t>
   </si>
   <si>
+    <t>请求头</t>
+  </si>
+  <si>
     <t>请求方式</t>
   </si>
   <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>断言</t>
-  </si>
-  <si>
-    <t>ces</t>
+    <t>请求示例</t>
+  </si>
+  <si>
+    <t>请求返回示例</t>
   </si>
   <si>
     <t>ming</t>
@@ -54,25 +54,22 @@
     <t>test</t>
   </si>
   <si>
+    <t>asdasdasdasdasdasd</t>
+  </si>
+  <si>
     <t>http://www.tuling123.com/openapi/api</t>
   </si>
   <si>
+    <t>asdfasdfadsf</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>asdfasdfadsf</t>
-  </si>
-  <si>
-    <t>code=40007</t>
-  </si>
-  <si>
-    <t>的广东佛山高大上发个梵蒂冈</t>
-  </si>
-  <si>
-    <t>第三方割发代首法规的法规</t>
-  </si>
-  <si>
-    <t>的方式公司的分公司电饭锅</t>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>sddasdasdas</t>
   </si>
 </sst>
 </file>
@@ -709,18 +706,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1079,163 +1073,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="62.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" ht="54.75" spans="1:8">
-      <c r="A3" s="1">
+    <row r="3" ht="54" spans="1:9">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" ht="54.75" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="54.75" spans="1:8">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="I3" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:8">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/jiekou.xlsx
+++ b/jiekou.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>接口</t>
   </si>
@@ -36,6 +36,9 @@
     <t>接口url</t>
   </si>
   <si>
+    <t>接口协议</t>
+  </si>
+  <si>
     <t>请求头</t>
   </si>
   <si>
@@ -48,7 +51,7 @@
     <t>请求返回示例</t>
   </si>
   <si>
-    <t>ming</t>
+    <t>昨夜西222树</t>
   </si>
   <si>
     <t>test</t>
@@ -57,32 +60,38 @@
     <t>asdasdasdasdasdasd</t>
   </si>
   <si>
+    <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>asdfasdfadsf</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>{"Accept":"text/html,application/xhtml+xml,application/xml;q=0.9,image/webp,*/*;q=0.8",
-"Accept-Encoding":"gzip, deflate, sdch, br",
-"Accept-Language":"zh-CN,zh;q=0.8"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tuling123.com/openapi/api</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":40001,"text":"亲爱的，key不对哦。"}</t>
-  </si>
-  <si>
-    <t>{"key":"apikey",   "info":"我想看新闻"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>sddasdasdas</t>
+  </si>
+  <si>
+    <t>昨夜西2ww22树</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,32 +100,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +253,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F4F6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,57 +447,318 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFF2F5F8"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -480,38 +1049,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -527,10 +1097,10 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
@@ -539,73 +1109,178 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>